--- a/MODELO_TABELA_FRETE.xlsx
+++ b/MODELO_TABELA_FRETE.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="630" yWindow="600" windowWidth="27495" windowHeight="11955" activeTab="5"/>
+    <workbookView xWindow="630" yWindow="600" windowWidth="27495" windowHeight="11955" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="zones priority " sheetId="1" r:id="rId1"/>
@@ -19,12 +19,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="31">
   <si>
     <t>Portugal</t>
-  </si>
-  <si>
-    <t>PT</t>
   </si>
   <si>
     <t>A</t>
@@ -33,13 +30,7 @@
     <t>Spain</t>
   </si>
   <si>
-    <t>ES</t>
-  </si>
-  <si>
     <t>France</t>
-  </si>
-  <si>
-    <t>FR</t>
   </si>
   <si>
     <t>B</t>
@@ -48,13 +39,7 @@
     <t>Germany</t>
   </si>
   <si>
-    <t>DE</t>
-  </si>
-  <si>
     <t>United States</t>
-  </si>
-  <si>
-    <t>US</t>
   </si>
   <si>
     <t>C</t>
@@ -63,25 +48,16 @@
     <t>Brazil</t>
   </si>
   <si>
-    <t>BR</t>
-  </si>
-  <si>
     <t>D</t>
   </si>
   <si>
     <t>China</t>
   </si>
   <si>
-    <t>CN</t>
-  </si>
-  <si>
     <t>E</t>
   </si>
   <si>
     <t>Australia</t>
-  </si>
-  <si>
-    <t>AU</t>
   </si>
   <si>
     <t>F</t>
@@ -103,9 +79,6 @@
   </si>
   <si>
     <t>Country</t>
-  </si>
-  <si>
-    <t>iso</t>
   </si>
   <si>
     <t>Zone</t>
@@ -478,116 +451,88 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.42578125" customWidth="1"/>
-    <col min="2" max="2" width="9.42578125" customWidth="1"/>
-    <col min="3" max="3" width="13" customWidth="1"/>
+    <col min="2" max="2" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
         <v>4</v>
       </c>
-      <c r="C3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="C4" t="s">
+      <c r="B6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>8</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B7" t="s">
         <v>9</v>
       </c>
-      <c r="C5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>10</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B8" t="s">
         <v>11</v>
       </c>
-      <c r="C6" t="s">
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="B9" t="s">
         <v>13</v>
-      </c>
-      <c r="B7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -607,65 +552,65 @@
   <sheetData>
     <row r="1" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C1" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" t="s">
         <v>24</v>
       </c>
-      <c r="C2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I2" t="s">
-        <v>30</v>
-      </c>
-      <c r="J2" t="s">
-        <v>31</v>
-      </c>
-      <c r="K2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L2" t="s">
-        <v>33</v>
-      </c>
       <c r="M2" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="N2" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="O2" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="P2" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="Q2" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.25">
@@ -717,7 +662,7 @@
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.25">
@@ -822,7 +767,7 @@
     </row>
     <row r="8" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="2:17" x14ac:dyDescent="0.25">
@@ -1777,60 +1722,60 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C28" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
+        <v>16</v>
+      </c>
+      <c r="C29" t="s">
+        <v>1</v>
+      </c>
+      <c r="D29" t="s">
+        <v>4</v>
+      </c>
+      <c r="E29" t="s">
+        <v>7</v>
+      </c>
+      <c r="F29" t="s">
+        <v>9</v>
+      </c>
+      <c r="G29" t="s">
+        <v>11</v>
+      </c>
+      <c r="H29" t="s">
+        <v>13</v>
+      </c>
+      <c r="I29" t="s">
+        <v>21</v>
+      </c>
+      <c r="J29" t="s">
+        <v>22</v>
+      </c>
+      <c r="K29" t="s">
+        <v>23</v>
+      </c>
+      <c r="L29" t="s">
         <v>24</v>
       </c>
-      <c r="C29" t="s">
-        <v>2</v>
-      </c>
-      <c r="D29" t="s">
-        <v>7</v>
-      </c>
-      <c r="E29" t="s">
-        <v>12</v>
-      </c>
-      <c r="F29" t="s">
-        <v>15</v>
-      </c>
-      <c r="G29" t="s">
-        <v>18</v>
-      </c>
-      <c r="H29" t="s">
-        <v>21</v>
-      </c>
-      <c r="I29" t="s">
-        <v>30</v>
-      </c>
-      <c r="J29" t="s">
-        <v>31</v>
-      </c>
-      <c r="K29" t="s">
-        <v>32</v>
-      </c>
-      <c r="L29" t="s">
-        <v>33</v>
-      </c>
       <c r="M29" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="N29" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="O29" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="P29" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="Q29" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
@@ -1946,116 +1891,88 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.42578125" customWidth="1"/>
-    <col min="2" max="2" width="9.42578125" customWidth="1"/>
-    <col min="3" max="3" width="13" customWidth="1"/>
+    <col min="2" max="2" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
         <v>4</v>
       </c>
-      <c r="C3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="C4" t="s">
+      <c r="B6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>8</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B7" t="s">
         <v>9</v>
       </c>
-      <c r="C5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>10</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B8" t="s">
         <v>11</v>
       </c>
-      <c r="C6" t="s">
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="B9" t="s">
         <v>13</v>
-      </c>
-      <c r="B7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -2075,65 +1992,65 @@
   <sheetData>
     <row r="1" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C1" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" t="s">
         <v>24</v>
       </c>
-      <c r="C2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I2" t="s">
-        <v>30</v>
-      </c>
-      <c r="J2" t="s">
-        <v>31</v>
-      </c>
-      <c r="K2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L2" t="s">
-        <v>33</v>
-      </c>
       <c r="M2" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="N2" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="O2" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="P2" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="Q2" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.25">
@@ -3088,60 +3005,60 @@
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C23" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" t="s">
+        <v>1</v>
+      </c>
+      <c r="D24" t="s">
+        <v>4</v>
+      </c>
+      <c r="E24" t="s">
+        <v>7</v>
+      </c>
+      <c r="F24" t="s">
+        <v>9</v>
+      </c>
+      <c r="G24" t="s">
+        <v>11</v>
+      </c>
+      <c r="H24" t="s">
+        <v>13</v>
+      </c>
+      <c r="I24" t="s">
+        <v>21</v>
+      </c>
+      <c r="J24" t="s">
+        <v>22</v>
+      </c>
+      <c r="K24" t="s">
+        <v>23</v>
+      </c>
+      <c r="L24" t="s">
         <v>24</v>
       </c>
-      <c r="C24" t="s">
-        <v>2</v>
-      </c>
-      <c r="D24" t="s">
-        <v>7</v>
-      </c>
-      <c r="E24" t="s">
-        <v>12</v>
-      </c>
-      <c r="F24" t="s">
-        <v>15</v>
-      </c>
-      <c r="G24" t="s">
-        <v>18</v>
-      </c>
-      <c r="H24" t="s">
-        <v>21</v>
-      </c>
-      <c r="I24" t="s">
-        <v>30</v>
-      </c>
-      <c r="J24" t="s">
-        <v>31</v>
-      </c>
-      <c r="K24" t="s">
-        <v>32</v>
-      </c>
-      <c r="L24" t="s">
-        <v>33</v>
-      </c>
       <c r="M24" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="N24" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="O24" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="P24" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="Q24" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
@@ -3257,116 +3174,88 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.42578125" customWidth="1"/>
-    <col min="2" max="2" width="9.42578125" customWidth="1"/>
-    <col min="3" max="3" width="13" customWidth="1"/>
+    <col min="2" max="2" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
         <v>4</v>
       </c>
-      <c r="C3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="C4" t="s">
+      <c r="B6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>8</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B7" t="s">
         <v>9</v>
       </c>
-      <c r="C5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>10</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B8" t="s">
         <v>11</v>
       </c>
-      <c r="C6" t="s">
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="B9" t="s">
         <v>13</v>
-      </c>
-      <c r="B7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -3378,7 +3267,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
@@ -3386,65 +3275,65 @@
   <sheetData>
     <row r="1" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C1" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" t="s">
         <v>24</v>
       </c>
-      <c r="C2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I2" t="s">
-        <v>30</v>
-      </c>
-      <c r="J2" t="s">
-        <v>31</v>
-      </c>
-      <c r="K2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L2" t="s">
-        <v>33</v>
-      </c>
       <c r="M2" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="N2" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="O2" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="P2" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="Q2" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.25">
@@ -4399,60 +4288,60 @@
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C23" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" t="s">
+        <v>1</v>
+      </c>
+      <c r="D24" t="s">
+        <v>4</v>
+      </c>
+      <c r="E24" t="s">
+        <v>7</v>
+      </c>
+      <c r="F24" t="s">
+        <v>9</v>
+      </c>
+      <c r="G24" t="s">
+        <v>11</v>
+      </c>
+      <c r="H24" t="s">
+        <v>13</v>
+      </c>
+      <c r="I24" t="s">
+        <v>21</v>
+      </c>
+      <c r="J24" t="s">
+        <v>22</v>
+      </c>
+      <c r="K24" t="s">
+        <v>23</v>
+      </c>
+      <c r="L24" t="s">
         <v>24</v>
       </c>
-      <c r="C24" t="s">
-        <v>2</v>
-      </c>
-      <c r="D24" t="s">
-        <v>7</v>
-      </c>
-      <c r="E24" t="s">
-        <v>12</v>
-      </c>
-      <c r="F24" t="s">
-        <v>15</v>
-      </c>
-      <c r="G24" t="s">
-        <v>18</v>
-      </c>
-      <c r="H24" t="s">
-        <v>21</v>
-      </c>
-      <c r="I24" t="s">
-        <v>30</v>
-      </c>
-      <c r="J24" t="s">
-        <v>31</v>
-      </c>
-      <c r="K24" t="s">
-        <v>32</v>
-      </c>
-      <c r="L24" t="s">
-        <v>33</v>
-      </c>
       <c r="M24" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="N24" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="O24" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="P24" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="Q24" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
